--- a/NSOT/golden_states/R2.xlsx
+++ b/NSOT/golden_states/R2.xlsx
@@ -699,7 +699,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>172.20.20.4/24</t>
+          <t>172.20.20.16/24</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FULL/DROTHER</t>
+          <t>2 WAYS/DROTHER</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:00:36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1178,7 +1178,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>192.168.0.3</t>
+          <t>192.168.0.4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1198,29 +1198,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FULL/DROTHER</t>
+          <t>FULL/DR</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>00:00:29</t>
+          <t>00:00:31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.0.101.3</t>
+          <t>192.168.0.4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ethernet2.100</t>
+          <t>Ethernet2.50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>192.168.0.4</t>
+          <t>192.168.0.3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1240,22 +1240,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FULL/DR</t>
+          <t>FULL/BDR</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:00:36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10.0.101.4</t>
+          <t>192.168.0.3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ethernet2.100</t>
+          <t>Ethernet2.50</t>
         </is>
       </c>
     </row>
@@ -1282,12 +1282,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FULL/DROTHER</t>
+          <t>2 WAYS/DROTHER</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1304,7 +1304,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>192.168.0.3</t>
+          <t>192.168.0.1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1324,29 +1324,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FULL/DROTHER</t>
+          <t>FULL/DR</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>00:00:31</t>
+          <t>00:00:36</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>192.168.0.3</t>
+          <t>10.0.100.3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Ethernet2.50</t>
+          <t>Ethernet1.100</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>192.168.0.4</t>
+          <t>192.168.0.1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1371,17 +1371,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>00:00:31</t>
+          <t>00:00:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>192.168.0.4</t>
+          <t>10.0.10.1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Ethernet2.50</t>
+          <t>Ethernet1.10</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FULL/BDR</t>
+          <t>FULL/DR</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
